--- a/output/downloads/czb/财政部.xlsx
+++ b/output/downloads/czb/财政部.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-05-13-7</t>
+          <t>财政部-2025-05-13-7</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-04-11-6</t>
+          <t>财政部-2025-04-11-6</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-04-09-5</t>
+          <t>财政部-2025-04-09-5</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-04-04-4</t>
+          <t>财政部-2025-04-04-4</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-03-08-3</t>
+          <t>财政部-2025-03-08-3</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-03-04-2</t>
+          <t>财政部-2025-03-04-2</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-02-04-1</t>
+          <t>财政部-2025-02-04-1</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-01-26-1</t>
+          <t>财政部-2025-01-26-1</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-12-31-13</t>
+          <t>财政部-2024-12-31-13</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,557 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-12-28-12</t>
+          <t>财政部-2024-12-28-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>关于利比里亚共和国籍的应税船舶适用船舶吨税优惠税率的通知</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241205_3948972.htm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-12-05_关于利比里亚共和国籍的应税船舶适用船舶吨税优惠税率的通知.zip</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>财政部-2024-12-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>关于继续执行关税专项优惠政策的公告</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948576.htm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_关于继续执行关税专项优惠政策的公告.zip</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>财政部-2024-11-29-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>关于一票货物免征关税额度的公告</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948542.htm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_关于一票货物免征关税额度的公告.zip</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>财政部-2024-11-29-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>国务院关税税则委员会关于公布《进境物品关税、增值税、消费税征收办法》的公告</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948540.htm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_国务院关税税则委员会关于公布《进境物品关税、增值税、消费税征收办法》的公告.zip</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['附件：进境物品关税、增值税、消费税征收办法.pdf']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>财政部-2024-11-29-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>国务院关税税则委员会关于对美加征关税商品第十六次排除延期清单的公告</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948530.htm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_国务院关税税则委员会关于对美加征关税商品第十六次排除延期清单的公告.zip</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['附件 对美加征关税商品第十六次排除延期清单.pdf']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>财政部-2024-11-29-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>关于安提瓜和巴布达籍的应税船舶适用船舶吨税优惠税率的通知</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241125_3948241.htm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-25_关于安提瓜和巴布达籍的应税船舶适用船舶吨税优惠税率的通知.zip</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>财政部-2024-11-25-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>国务院关税税则委员会关于停止执行对部分原产于台湾地区的农产品免征关税政策的公告</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240918_3943975.htm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-09-18_国务院关税税则委员会关于停止执行对部分原产于台湾地区的农产品免征关税政策的公告.zip</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>财政部-2024-09-18-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>国务院关税税则委员会关于给予最不发达国家100%税目产品零关税待遇的公告</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240912_3943678.htm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-09-12_国务院关税税则委员会关于给予最不发达国家100%税目产品零关税待遇的公告.zip</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>财政部-2024-09-12-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>关于海南自由贸易港药品、医疗器械“零关税”政策的通知</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240905_3943199.htm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-09-05_关于海南自由贸易港药品、医疗器械“零关税”政策的通知.zip</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>财政部-2024-09-05-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>国务院关税税则委员会关于对原产于洪都拉斯的部分进口货物实施自由贸易协定早期收获安排协定税率的公告</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>财政部</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202408/t20240829_3942796.htm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-08-30_国务院关税税则委员会关于对原产于洪都拉斯的部分进口货物实施自由贸易协定早期收获安排协定税率的公告.zip</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['2024年对洪都拉斯实施自由贸易协定早期收获安排的协定税率表.pdf']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>财政部-2024-08-30-7</t>
         </is>
       </c>
     </row>

--- a/output/downloads/czb/财政部.xlsx
+++ b/output/downloads/czb/财政部.xlsx
@@ -503,27 +503,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202505/t20250513_3963684.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202508/t20250812_3969806.htm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-05-13_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-08-12_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -541,14 +541,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>财政部-2025-05-13-7</t>
+          <t>财政部-2025-08-12-8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告</t>
+          <t>关于海南自由贸易港进口征税商品目录的通知</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,52 +558,52 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202504/t20250411_3961823.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202507/t20250722_3968312.htm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-04-11_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-07-23_关于海南自由贸易港进口征税商品目录的通知.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件：进口征税商品清单.pdf']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>财政部-2025-04-11-6</t>
+          <t>财政部-2025-07-23-13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告</t>
+          <t>关于海南自由贸易港货物进出“一线”、“二线”及在岛内流通税收政策的通知</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -613,27 +613,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202504/t20250409_3961684.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202507/t20250722_3968309.htm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-04-09_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-07-23_关于海南自由贸易港货物进出“一线”、“二线”及在岛内流通税收政策的通知.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -651,14 +651,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>财政部-2025-04-09-5</t>
+          <t>财政部-2025-07-23-12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于对原产于美国的进口商品加征关税的公告</t>
+          <t>国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202504/t20250404_3961451.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202505/t20250513_3963684.htm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-04-04_国务院关税税则委员会关于对原产于美国的进口商品加征关税的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-05-13_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -706,14 +706,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>财政部-2025-04-04-4</t>
+          <t>财政部-2025-05-13-7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于对原产于加拿大的部分进口商品加征关税的公告</t>
+          <t>国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,52 +723,52 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202503/t20250307_3959523.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202504/t20250411_3961823.htm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-03-08_国务院关税税则委员会关于对原产于加拿大的部分进口商品加征关税的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-04-11_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['附件1 加征100%关税商品清单.pdf', '附件2 加征25%关税商品清单.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>财政部-2025-03-08-3</t>
+          <t>财政部-2025-04-11-6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告</t>
+          <t>国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -778,52 +778,52 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202503/t20250304_3959228.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202504/t20250409_3961684.htm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-03-04_国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-04-09_国务院关税税则委员会关于调整对原产于美国的进口商品加征关税措施的公告.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['附件1 加征15%关税商品清单.pdf', '附件2 加征10%关税商品清单.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>财政部-2025-03-04-2</t>
+          <t>财政部-2025-04-09-5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告</t>
+          <t>国务院关税税则委员会关于对原产于美国的进口商品加征关税的公告</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -833,52 +833,52 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://www.mof.gov.cn/zhengwuxinxi/caizhengxinwen/202502/t20250204_3955222.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202504/t20250404_3961451.htm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-02-04_国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-04-04_国务院关税税则委员会关于对原产于美国的进口商品加征关税的公告.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['附件1 加征15%关税商品清单.pdf', '附件2 加征10%关税商品清单.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>财政部-2025-02-04-1</t>
+          <t>财政部-2025-04-04-4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>关于调整海南自由贸易港原辅料“零关税”政策的通知</t>
+          <t>国务院关税税则委员会关于对原产于加拿大的部分进口商品加征关税的公告</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -888,52 +888,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202501/t20250126_3955150.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202503/t20250307_3959523.htm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2025-01-26_关于调整海南自由贸易港原辅料“零关税”政策的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-03-08_国务院关税税则委员会关于对原产于加拿大的部分进口商品加征关税的公告.zip</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['附件.海南自由贸易港“零关税”原辅料增补清单.pdf']</t>
+          <t>['附件1 加征100%关税商品清单.pdf', '附件2 加征25%关税商品清单.pdf']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>财政部-2025-01-26-1</t>
+          <t>财政部-2025-03-08-3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于发布《中华人民共和国进出口税则（2025）》的公告</t>
+          <t>国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -943,52 +943,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241230_3950785.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202503/t20250304_3959228.htm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-12-31_国务院关税税则委员会关于发布《中华人民共和国进出口税则（2025）》的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-03-04_国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告.zip</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['中华人民共和国进出口税则（2025）.pdf']</t>
+          <t>['附件1 加征15%关税商品清单.pdf', '附件2 加征10%关税商品清单.pdf']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>财政部-2024-12-31-13</t>
+          <t>财政部-2025-03-04-2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于2025年关税调整方案的公告</t>
+          <t>国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -998,52 +998,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241227_3950708.htm</t>
+          <t>http://www.mof.gov.cn/zhengwuxinxi/caizhengxinwen/202502/t20250204_3955222.htm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-12-28_国务院关税税则委员会关于2025年关税调整方案的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-02-04_国务院关税税则委员会关于对原产于美国的部分进口商品加征关税的公告.zip</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['附件：2025年关税调整方案.pdf', '附1 最惠国税率调整表.pdf', '附2 进口商品暂定税率表.pdf', '附3 出口商品税率表.pdf', '附4 关税配额商品税目税率表.pdf', '附5 进出口税则税目调整表.pdf', '附6 本国子目注释表.pdf', '附7 自由贸易协定和优惠贸易安排实施税率表.pdf']</t>
+          <t>['附件1 加征15%关税商品清单.pdf', '附件2 加征10%关税商品清单.pdf']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>财政部-2024-12-28-12</t>
+          <t>财政部-2025-02-04-1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>关于利比里亚共和国籍的应税船舶适用船舶吨税优惠税率的通知</t>
+          <t>关于调整海南自由贸易港原辅料“零关税”政策的通知</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1053,52 +1053,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241205_3948972.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202501/t20250126_3955150.htm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-12-05_关于利比里亚共和国籍的应税船舶适用船舶吨税优惠税率的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2025-01-26_关于调整海南自由贸易港原辅料“零关税”政策的通知.zip</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件.海南自由贸易港“零关税”原辅料增补清单.pdf']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>财政部-2024-12-05-27</t>
+          <t>财政部-2025-01-26-1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>关于继续执行关税专项优惠政策的公告</t>
+          <t>国务院关税税则委员会关于发布《中华人民共和国进出口税则（2025）》的公告</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1108,52 +1108,52 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948576.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241230_3950785.htm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_关于继续执行关税专项优惠政策的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-12-31_国务院关税税则委员会关于发布《中华人民共和国进出口税则（2025）》的公告.zip</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['中华人民共和国进出口税则（2025）.pdf']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>财政部-2024-11-29-18</t>
+          <t>财政部-2024-12-31-13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>关于一票货物免征关税额度的公告</t>
+          <t>国务院关税税则委员会关于2025年关税调整方案的公告</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1163,52 +1163,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948542.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241227_3950708.htm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_关于一票货物免征关税额度的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-12-28_国务院关税税则委员会关于2025年关税调整方案的公告.zip</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件：2025年关税调整方案.pdf', '附1 最惠国税率调整表.pdf', '附2 进口商品暂定税率表.pdf', '附3 出口商品税率表.pdf', '附4 关税配额商品税目税率表.pdf', '附5 进出口税则税目调整表.pdf', '附6 本国子目注释表.pdf', '附7 自由贸易协定和优惠贸易安排实施税率表.pdf']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>财政部-2024-11-29-17</t>
+          <t>财政部-2024-12-28-12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于公布《进境物品关税、增值税、消费税征收办法》的公告</t>
+          <t>关于利比里亚共和国籍的应税船舶适用船舶吨税优惠税率的通知</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1218,52 +1218,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948540.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202412/t20241205_3948972.htm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_国务院关税税则委员会关于公布《进境物品关税、增值税、消费税征收办法》的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-12-05_关于利比里亚共和国籍的应税船舶适用船舶吨税优惠税率的通知.zip</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['附件：进境物品关税、增值税、消费税征收办法.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>财政部-2024-11-29-11</t>
+          <t>财政部-2024-12-05-27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于对美加征关税商品第十六次排除延期清单的公告</t>
+          <t>关于继续执行关税专项优惠政策的公告</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948530.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948576.htm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1288,37 +1288,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-29_国务院关税税则委员会关于对美加征关税商品第十六次排除延期清单的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-11-29_关于继续执行关税专项优惠政策的公告.zip</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['附件 对美加征关税商品第十六次排除延期清单.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>财政部-2024-11-29-10</t>
+          <t>财政部-2024-11-29-18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>关于安提瓜和巴布达籍的应税船舶适用船舶吨税优惠税率的通知</t>
+          <t>关于一票货物免征关税额度的公告</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1328,27 +1328,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241125_3948241.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948542.htm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-11-25_关于安提瓜和巴布达籍的应税船舶适用船舶吨税优惠税率的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-11-29_关于一票货物免征关税额度的公告.zip</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1366,14 +1366,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>财政部-2024-11-25-24</t>
+          <t>财政部-2024-11-29-17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于停止执行对部分原产于台湾地区的农产品免征关税政策的公告</t>
+          <t>国务院关税税则委员会关于公布《进境物品关税、增值税、消费税征收办法》的公告</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1383,52 +1383,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240918_3943975.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948540.htm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-09-18_国务院关税税则委员会关于停止执行对部分原产于台湾地区的农产品免征关税政策的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-11-29_国务院关税税则委员会关于公布《进境物品关税、增值税、消费税征收办法》的公告.zip</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件：进境物品关税、增值税、消费税征收办法.pdf']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>财政部-2024-09-18-8</t>
+          <t>财政部-2024-11-29-11</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于给予最不发达国家100%税目产品零关税待遇的公告</t>
+          <t>国务院关税税则委员会关于对美加征关税商品第十六次排除延期清单的公告</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1438,52 +1438,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240912_3943678.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241129_3948530.htm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-09-12_国务院关税税则委员会关于给予最不发达国家100%税目产品零关税待遇的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-11-29_国务院关税税则委员会关于对美加征关税商品第十六次排除延期清单的公告.zip</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件 对美加征关税商品第十六次排除延期清单.pdf']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>财政部-2024-09-12-9</t>
+          <t>财政部-2024-11-29-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>关于海南自由贸易港药品、医疗器械“零关税”政策的通知</t>
+          <t>关于安提瓜和巴布达籍的应税船舶适用船舶吨税优惠税率的通知</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1493,27 +1493,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240905_3943199.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202411/t20241125_3948241.htm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-09-05_关于海南自由贸易港药品、医疗器械“零关税”政策的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-11-25_关于安提瓜和巴布达籍的应税船舶适用船舶吨税优惠税率的通知.zip</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>财政部-2024-09-05-21</t>
+          <t>财政部-2024-11-25-24</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>国务院关税税则委员会关于对原产于洪都拉斯的部分进口货物实施自由贸易协定早期收获安排协定税率的公告</t>
+          <t>国务院关税税则委员会关于停止执行对部分原产于台湾地区的农产品免征关税政策的公告</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1548,45 +1548,45 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202408/t20240829_3942796.htm</t>
+          <t>http://gss.mof.gov.cn/gzdt/zhengcefabu/202409/t20240918_3943975.htm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\czb\2024-08-30_国务院关税税则委员会关于对原产于洪都拉斯的部分进口货物实施自由贸易协定早期收获安排协定税率的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\czb\2024-09-18_国务院关税税则委员会关于停止执行对部分原产于台湾地区的农产品免征关税政策的公告.zip</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['2024年对洪都拉斯实施自由贸易协定早期收获安排的协定税率表.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>财政部-2024-08-30-7</t>
+          <t>财政部-2024-09-18-8</t>
         </is>
       </c>
     </row>
